--- a/src/test/java/K19_ExcelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/K19_ExcelOtomasyon/ulkeler.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="573" count="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="576" count="770">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1736,12 +1736,22 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>Java Republic</t>
+  </si>
+  <si>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1832,7 +1842,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -1870,7 +1880,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1906,7 +1916,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView topLeftCell="A2" view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="M17" sqref="M17"/>
@@ -1914,7 +1924,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" thickBot="1">
@@ -1930,6 +1940,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1944,6 +1957,9 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="n" s="0">
+        <v>1500000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
@@ -2056,6 +2072,9 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="n" s="0">
+        <v>1250000.0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
@@ -2126,6 +2145,9 @@
       <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="E15" t="n" s="0">
+        <v>54000.0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="s">
@@ -4592,6 +4614,22 @@
       </c>
     </row>
     <row r="193" customHeight="1"/>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
@@ -4611,66 +4649,66 @@
   <sheetFormatPr customHeight="true" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7">
+      <c r="B7" s="0">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13">
+      <c r="B13" s="0">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20">
+      <c r="E20" s="0">
         <v>1</v>
       </c>
     </row>
